--- a/docs/collections/agriculture/metadata/data.xlsx
+++ b/docs/collections/agriculture/metadata/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
   <si>
     <t>資料名</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/275041</t>
+  </si>
+  <si>
+    <t>農学生命科学図書館コレクション|University Library for Agricultural and Life Sciences, the University of Tokyo Collection</t>
   </si>
   <si>
     <t>2</t>
@@ -1062,14 +1065,14 @@
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="Y4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Z4" t="s"/>
       <c r="AA4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AB4" t="s"/>
       <c r="AC4" t="s"/>
@@ -1081,31 +1084,31 @@
     </row>
     <row r="5" spans="1:32">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J5" t="s"/>
       <c r="K5" t="s">
@@ -1118,25 +1121,25 @@
         <v>72</v>
       </c>
       <c r="N5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P5" t="s">
         <v>75</v>
       </c>
       <c r="Q5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R5" t="s">
         <v>77</v>
       </c>
       <c r="S5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="T5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="U5" t="s">
         <v>80</v>
@@ -1146,14 +1149,14 @@
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="Y5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Z5" t="s"/>
       <c r="AA5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AB5" t="s"/>
       <c r="AC5" t="s"/>

--- a/docs/collections/agriculture/metadata/data.xlsx
+++ b/docs/collections/agriculture/metadata/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
   <si>
     <t>資料名</t>
   </si>
@@ -375,6 +375,153 @@
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/187cc82d-11e6-9912-9dd4-b4cca9b10970/manifest</t>
+  </si>
+  <si>
+    <t>農科大學桑樹見本園各種摺葉譜 一</t>
+  </si>
+  <si>
+    <t>ノウカ ダイガク ソウジュ ミホンエン カクシュ ショウヨウフ</t>
+  </si>
+  <si>
+    <t>佐々木忠次郎 [著]</t>
+  </si>
+  <si>
+    <t>大正7年(1918)12月序</t>
+  </si>
+  <si>
+    <t>630:90:1</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/3e6f484d-a4e0-7073-4365-b287924d423a.json</t>
+  </si>
+  <si>
+    <t>3e6f484d-a4e0-7073-4365-b287924d423a</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/piranesi/document/3e6f484d-a4e0-7073-4365-b287924d423a</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/dfb6622529735856cf83a97769bb6837c181d6ff.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/439369</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/3e6f484d-a4e0-7073-4365-b287924d423a/manifest</t>
+  </si>
+  <si>
+    <t>農科大學桑樹見本園各種摺葉譜 二</t>
+  </si>
+  <si>
+    <t>630:90:2</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/f3bfde97-6dfb-3f09-33af-0c615a250268.json</t>
+  </si>
+  <si>
+    <t>f3bfde97-6dfb-3f09-33af-0c615a250268</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/piranesi/document/f3bfde97-6dfb-3f09-33af-0c615a250268</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/32e2196c46703505110c06bdbf92fa9ad8ca481c.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/439370</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/f3bfde97-6dfb-3f09-33af-0c615a250268/manifest</t>
+  </si>
+  <si>
+    <t>農科大學桑樹見本園各種摺葉譜 三</t>
+  </si>
+  <si>
+    <t>630:90:3</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/a09fc5f4-8edc-0d46-7340-e2768dbf7a05.json</t>
+  </si>
+  <si>
+    <t>a09fc5f4-8edc-0d46-7340-e2768dbf7a05</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/piranesi/document/a09fc5f4-8edc-0d46-7340-e2768dbf7a05</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/67749c791401a4d15b01ec7720cf21569b4c7c67.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/439371</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/a09fc5f4-8edc-0d46-7340-e2768dbf7a05/manifest</t>
+  </si>
+  <si>
+    <t>農科大學桑樹見本園各種摺葉譜 四</t>
+  </si>
+  <si>
+    <t>630:90:4</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/9c79a3bb-34da-25bf-4243-4ba1709556a9.json</t>
+  </si>
+  <si>
+    <t>9c79a3bb-34da-25bf-4243-4ba1709556a9</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/piranesi/document/9c79a3bb-34da-25bf-4243-4ba1709556a9</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a9c54d326cbc953cde434434eb26b6b81614129c.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/439372</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/9c79a3bb-34da-25bf-4243-4ba1709556a9/manifest</t>
+  </si>
+  <si>
+    <t>農科大學桑樹見本園各種摺葉譜 五</t>
+  </si>
+  <si>
+    <t>630:90:5</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/58f3ea6c-3626-9cbb-6cf8-33078f6e41bc.json</t>
+  </si>
+  <si>
+    <t>58f3ea6c-3626-9cbb-6cf8-33078f6e41bc</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/piranesi/document/58f3ea6c-3626-9cbb-6cf8-33078f6e41bc</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/876c4079f5ebc054fab75c39ed25b18448581072.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/439373</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/58f3ea6c-3626-9cbb-6cf8-33078f6e41bc/manifest</t>
   </si>
 </sst>
 </file>
@@ -710,7 +857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AF10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -911,7 +1058,7 @@
         <v>61</v>
       </c>
       <c r="AF2" t="n">
-        <v>48</v>
+        <v>857</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -1166,6 +1313,376 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:32">
+      <c r="A6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s"/>
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" t="s"/>
+      <c r="G6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" t="s">
+        <v>123</v>
+      </c>
+      <c r="O6" t="s">
+        <v>124</v>
+      </c>
+      <c r="P6" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>126</v>
+      </c>
+      <c r="R6" t="s">
+        <v>77</v>
+      </c>
+      <c r="S6" t="s">
+        <v>127</v>
+      </c>
+      <c r="T6" t="s">
+        <v>128</v>
+      </c>
+      <c r="U6" t="s">
+        <v>80</v>
+      </c>
+      <c r="V6" t="s"/>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z6" t="s"/>
+      <c r="AA6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB6" t="s"/>
+      <c r="AC6" t="s"/>
+      <c r="AD6" t="s"/>
+      <c r="AE6" t="s"/>
+      <c r="AF6" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s"/>
+      <c r="D7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" t="s"/>
+      <c r="G7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" t="s">
+        <v>133</v>
+      </c>
+      <c r="O7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>135</v>
+      </c>
+      <c r="R7" t="s">
+        <v>77</v>
+      </c>
+      <c r="S7" t="s">
+        <v>136</v>
+      </c>
+      <c r="T7" t="s">
+        <v>137</v>
+      </c>
+      <c r="U7" t="s">
+        <v>80</v>
+      </c>
+      <c r="V7" t="s"/>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z7" t="s"/>
+      <c r="AA7" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB7" t="s"/>
+      <c r="AC7" t="s"/>
+      <c r="AD7" t="s"/>
+      <c r="AE7" t="s"/>
+      <c r="AF7" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s"/>
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" t="s"/>
+      <c r="G8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s"/>
+      <c r="K8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" t="s">
+        <v>142</v>
+      </c>
+      <c r="O8" t="s">
+        <v>143</v>
+      </c>
+      <c r="P8" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>144</v>
+      </c>
+      <c r="R8" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" t="s">
+        <v>145</v>
+      </c>
+      <c r="T8" t="s">
+        <v>146</v>
+      </c>
+      <c r="U8" t="s">
+        <v>80</v>
+      </c>
+      <c r="V8" t="s"/>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z8" t="s"/>
+      <c r="AA8" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB8" t="s"/>
+      <c r="AC8" t="s"/>
+      <c r="AD8" t="s"/>
+      <c r="AE8" t="s"/>
+      <c r="AF8" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s"/>
+      <c r="D9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" t="s"/>
+      <c r="G9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s"/>
+      <c r="K9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" t="s">
+        <v>151</v>
+      </c>
+      <c r="O9" t="s">
+        <v>152</v>
+      </c>
+      <c r="P9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>153</v>
+      </c>
+      <c r="R9" t="s">
+        <v>77</v>
+      </c>
+      <c r="S9" t="s">
+        <v>154</v>
+      </c>
+      <c r="T9" t="s">
+        <v>155</v>
+      </c>
+      <c r="U9" t="s">
+        <v>80</v>
+      </c>
+      <c r="V9" t="s"/>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z9" t="s"/>
+      <c r="AA9" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB9" t="s"/>
+      <c r="AC9" t="s"/>
+      <c r="AD9" t="s"/>
+      <c r="AE9" t="s"/>
+      <c r="AF9" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s"/>
+      <c r="D10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s"/>
+      <c r="K10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" t="s">
+        <v>160</v>
+      </c>
+      <c r="O10" t="s">
+        <v>161</v>
+      </c>
+      <c r="P10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>162</v>
+      </c>
+      <c r="R10" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" t="s">
+        <v>163</v>
+      </c>
+      <c r="T10" t="s">
+        <v>164</v>
+      </c>
+      <c r="U10" t="s">
+        <v>80</v>
+      </c>
+      <c r="V10" t="s"/>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z10" t="s"/>
+      <c r="AA10" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB10" t="s"/>
+      <c r="AC10" t="s"/>
+      <c r="AD10" t="s"/>
+      <c r="AE10" t="s"/>
+      <c r="AF10" t="n">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/docs/collections/agriculture/metadata/data.xlsx
+++ b/docs/collections/agriculture/metadata/data.xlsx
@@ -401,7 +401,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/piranesi/document/3e6f484d-a4e0-7073-4365-b287924d423a</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/3e6f484d-a4e0-7073-4365-b287924d423a</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/dfb6622529735856cf83a97769bb6837c181d6ff.jpg</t>
@@ -428,7 +428,7 @@
     <t>f3bfde97-6dfb-3f09-33af-0c615a250268</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/piranesi/document/f3bfde97-6dfb-3f09-33af-0c615a250268</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/f3bfde97-6dfb-3f09-33af-0c615a250268</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/32e2196c46703505110c06bdbf92fa9ad8ca481c.jpg</t>
@@ -455,7 +455,7 @@
     <t>a09fc5f4-8edc-0d46-7340-e2768dbf7a05</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/piranesi/document/a09fc5f4-8edc-0d46-7340-e2768dbf7a05</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/a09fc5f4-8edc-0d46-7340-e2768dbf7a05</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/67749c791401a4d15b01ec7720cf21569b4c7c67.jpg</t>
@@ -482,7 +482,7 @@
     <t>9c79a3bb-34da-25bf-4243-4ba1709556a9</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/piranesi/document/9c79a3bb-34da-25bf-4243-4ba1709556a9</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/9c79a3bb-34da-25bf-4243-4ba1709556a9</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a9c54d326cbc953cde434434eb26b6b81614129c.jpg</t>
@@ -509,7 +509,7 @@
     <t>58f3ea6c-3626-9cbb-6cf8-33078f6e41bc</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/piranesi/document/58f3ea6c-3626-9cbb-6cf8-33078f6e41bc</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/58f3ea6c-3626-9cbb-6cf8-33078f6e41bc</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/876c4079f5ebc054fab75c39ed25b18448581072.jpg</t>

--- a/docs/collections/agriculture/metadata/data.xlsx
+++ b/docs/collections/agriculture/metadata/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="447">
   <si>
     <t>資料名</t>
   </si>
@@ -528,6 +528,840 @@
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/58f3ea6c-3626-9cbb-6cf8-33078f6e41bc/manifest</t>
+  </si>
+  <si>
+    <t>葇荑科植物彩色圖 : 楊柳属白楊属</t>
+  </si>
+  <si>
+    <t>ジュウテイカ ショクブツ サイシキズ : ヨウリュウゾク ハクヨウゾク</t>
+  </si>
+  <si>
+    <t>東京山林學校 [写]</t>
+  </si>
+  <si>
+    <t>[明治期]</t>
+  </si>
+  <si>
+    <t>1冊</t>
+  </si>
+  <si>
+    <t>613:61</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/b6e42779-162f-7bae-708c-bef438966890.json</t>
+  </si>
+  <si>
+    <t>b6e42779-162f-7bae-708c-bef438966890</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/b6e42779-162f-7bae-708c-bef438966890</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/077fa28b3310f6342fa6a018739870771bf996f6.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/540593</t>
+  </si>
+  <si>
+    <t>東京大学農学生命科学研究科・農学部 / Graduate School of Agricultural and Life Sciences/Faculty of Agriculture, The University of Tokyo, JAPAN</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/b6e42779-162f-7bae-708c-bef438966890/manifest</t>
+  </si>
+  <si>
+    <t>莎草類彩色圖</t>
+  </si>
+  <si>
+    <t>サソウルイ サイシキズ</t>
+  </si>
+  <si>
+    <t>613:62</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/7a3e0c92-234b-1295-947b-d697d0d6955f.json</t>
+  </si>
+  <si>
+    <t>7a3e0c92-234b-1295-947b-d697d0d6955f</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/7a3e0c92-234b-1295-947b-d697d0d6955f</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/34bf47811bcd86f03eca5a3c422d99f3c3b46377.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/540592</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/7a3e0c92-234b-1295-947b-d697d0d6955f/manifest</t>
+  </si>
+  <si>
+    <t>禾本科植物彩色圖</t>
+  </si>
+  <si>
+    <t>カホンカ ショクブツ サイシキズ</t>
+  </si>
+  <si>
+    <t>[書写者不明]</t>
+  </si>
+  <si>
+    <t>613:63</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/df8094b2-597f-5dcf-6c06-28af31a74c49.json</t>
+  </si>
+  <si>
+    <t>df8094b2-597f-5dcf-6c06-28af31a74c49</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/df8094b2-597f-5dcf-6c06-28af31a74c49</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e1c508b02e5ebfc8871fecd627a04c39f3c817fa.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/540591</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/df8094b2-597f-5dcf-6c06-28af31a74c49/manifest</t>
+  </si>
+  <si>
+    <t>彩色寫生輸出百合花集</t>
+  </si>
+  <si>
+    <t>サイショク シャセイ ユシュツ ユリ カシュウ : ゼン</t>
+  </si>
+  <si>
+    <t>池田次郎吉編</t>
+  </si>
+  <si>
+    <t>1895年8月刊</t>
+  </si>
+  <si>
+    <t>613:44</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/627f6b5d-4e4c-81e1-7954-bd451f567a45.json</t>
+  </si>
+  <si>
+    <t>627f6b5d-4e4c-81e1-7954-bd451f567a45</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/627f6b5d-4e4c-81e1-7954-bd451f567a45</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b61af98d51c3b998b528184e88248ceb5b3f0c28.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/540590</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/627f6b5d-4e4c-81e1-7954-bd451f567a45/manifest</t>
+  </si>
+  <si>
+    <t>莎草冩圖</t>
+  </si>
+  <si>
+    <t>サソウ シャズ</t>
+  </si>
+  <si>
+    <t>[書写年不明]</t>
+  </si>
+  <si>
+    <t>613:46</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/b4814f58-5ae1-481d-0cfa-6938aa3a7620.json</t>
+  </si>
+  <si>
+    <t>b4814f58-5ae1-481d-0cfa-6938aa3a7620</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/b4814f58-5ae1-481d-0cfa-6938aa3a7620</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c39bbe5819e6f19ab91b45b865c90b663538bea9.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/540589</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/b4814f58-5ae1-481d-0cfa-6938aa3a7620/manifest</t>
+  </si>
+  <si>
+    <t>有用植物圖説 目録索引</t>
+  </si>
+  <si>
+    <t>ユウヨウ ショクブツ ズセツ</t>
+  </si>
+  <si>
+    <t>田中芳男, 小野職愨撰 ; 曲直瀬愛, 小森頼信校 ; 服部雪斎図画</t>
+  </si>
+  <si>
+    <t>明治24[1891]年刊</t>
+  </si>
+  <si>
+    <t>613:29:1</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/87c1c4a4-9cce-5b5f-a5a4-ad58e2240372.json</t>
+  </si>
+  <si>
+    <t>87c1c4a4-9cce-5b5f-a5a4-ad58e2240372</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/87c1c4a4-9cce-5b5f-a5a4-ad58e2240372</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/5fbc12009cb1eac40147b36930c8a2db0cfc3d58.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/540588</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/87c1c4a4-9cce-5b5f-a5a4-ad58e2240372/manifest</t>
+  </si>
+  <si>
+    <t>有用植物圖説 解説卷1</t>
+  </si>
+  <si>
+    <t>613:29:2</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/bb4b00b5-8a54-3698-656b-2b5baaa40938.json</t>
+  </si>
+  <si>
+    <t>bb4b00b5-8a54-3698-656b-2b5baaa40938</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/bb4b00b5-8a54-3698-656b-2b5baaa40938</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e02dd86ad44e9eb7356e43310a143b7f3e3b41b1.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/540587</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/bb4b00b5-8a54-3698-656b-2b5baaa40938/manifest</t>
+  </si>
+  <si>
+    <t>有用植物圖説 解説卷2</t>
+  </si>
+  <si>
+    <t>613:29:3</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/42dfe305-0e6e-4d22-298a-d3895726a29a.json</t>
+  </si>
+  <si>
+    <t>42dfe305-0e6e-4d22-298a-d3895726a29a</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/42dfe305-0e6e-4d22-298a-d3895726a29a</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3ce488a3eb4254a3b6b8496ed85db77b9863ce02.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/540586</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/42dfe305-0e6e-4d22-298a-d3895726a29a/manifest</t>
+  </si>
+  <si>
+    <t>有用植物圖説 解説卷3</t>
+  </si>
+  <si>
+    <t>613:29:4</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/6041ed83-59e7-7bc0-196d-c7ed8d01673d.json</t>
+  </si>
+  <si>
+    <t>6041ed83-59e7-7bc0-196d-c7ed8d01673d</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/6041ed83-59e7-7bc0-196d-c7ed8d01673d</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c8830737091bd2f671f48d38dea9c1ba11a6c1aa.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/540585</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/6041ed83-59e7-7bc0-196d-c7ed8d01673d/manifest</t>
+  </si>
+  <si>
+    <t>有用植物圖説 圖畫卷1</t>
+  </si>
+  <si>
+    <t>613:29:5</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/5bfde8bf-0b54-7848-97d6-1ee30cf9a645.json</t>
+  </si>
+  <si>
+    <t>5bfde8bf-0b54-7848-97d6-1ee30cf9a645</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/5bfde8bf-0b54-7848-97d6-1ee30cf9a645</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/bcaf9483c21cf2c344eb05db19c84318fdd494b7.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/540584</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/5bfde8bf-0b54-7848-97d6-1ee30cf9a645/manifest</t>
+  </si>
+  <si>
+    <t>有用植物圖説 圖畫卷2</t>
+  </si>
+  <si>
+    <t>613:29:6</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/7844f0c7-2434-7b74-15df-c74b0e3c8e38.json</t>
+  </si>
+  <si>
+    <t>7844f0c7-2434-7b74-15df-c74b0e3c8e38</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/7844f0c7-2434-7b74-15df-c74b0e3c8e38</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d95043c466b60e5a802fa195364e2a50d666b148.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/540583</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/7844f0c7-2434-7b74-15df-c74b0e3c8e38/manifest</t>
+  </si>
+  <si>
+    <t>有用植物圖説 圖畫卷3</t>
+  </si>
+  <si>
+    <t>613:29:7</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/29d63e58-754f-7565-a41a-29cc2d5e4e3e.json</t>
+  </si>
+  <si>
+    <t>29d63e58-754f-7565-a41a-29cc2d5e4e3e</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/29d63e58-754f-7565-a41a-29cc2d5e4e3e</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d1b7a04b7ee1601afbce74e2d5d6e443158cfa7d.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/540582</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/29d63e58-754f-7565-a41a-29cc2d5e4e3e/manifest</t>
+  </si>
+  <si>
+    <t>日本竹類圖譜</t>
+  </si>
+  <si>
+    <t>ニホン チクルイ ズフ</t>
+  </si>
+  <si>
+    <t>農商務省山林局編纂</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>613.793:N77-N</t>
+  </si>
+  <si>
+    <t>[図版]</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/c2466a42-0add-7f2b-7d11-58aaebea953f.json</t>
+  </si>
+  <si>
+    <t>c2466a42-0add-7f2b-7d11-58aaebea953f</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/c2466a42-0add-7f2b-7d11-58aaebea953f</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8c7d52ad1ff244a67cbdd65371cc066da0916d88.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541553</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/c2466a42-0add-7f2b-7d11-58aaebea953f/manifest</t>
+  </si>
+  <si>
+    <t>日本森林樹木図譜 第一秩</t>
+  </si>
+  <si>
+    <t>ニホン シンリン ジュモク ズフ</t>
+  </si>
+  <si>
+    <t>白澤保美編著 ; 丸山宣光,大石榮雄畫</t>
+  </si>
+  <si>
+    <t>1900-1908</t>
+  </si>
+  <si>
+    <t>650:21:1</t>
+  </si>
+  <si>
+    <t>第一秩</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/2c310bb0-6cb1-4f7b-2b7d-7d6255cf680e.json</t>
+  </si>
+  <si>
+    <t>2c310bb0-6cb1-4f7b-2b7d-7d6255cf680e</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/2c310bb0-6cb1-4f7b-2b7d-7d6255cf680e</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a99c241f170b53031c6868ffd035e2e7c83cd97c.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541552</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/2c310bb0-6cb1-4f7b-2b7d-7d6255cf680e/manifest</t>
+  </si>
+  <si>
+    <t>日本森林樹木図譜 第二秩</t>
+  </si>
+  <si>
+    <t>650:21:2</t>
+  </si>
+  <si>
+    <t>第二秩</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/70f02bc2-6f66-84ec-3578-058a8d03668c.json</t>
+  </si>
+  <si>
+    <t>70f02bc2-6f66-84ec-3578-058a8d03668c</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/70f02bc2-6f66-84ec-3578-058a8d03668c</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/cb8fd23accfa1e140cf1d12b9b9c6811ff39adb1.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541551</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/70f02bc2-6f66-84ec-3578-058a8d03668c/manifest</t>
+  </si>
+  <si>
+    <t>日本菌類圖譜</t>
+  </si>
+  <si>
+    <t>ニホン キンルイ ズフ</t>
+  </si>
+  <si>
+    <t>農商務省山林局 [編纂]</t>
+  </si>
+  <si>
+    <t>1912-1925</t>
+  </si>
+  <si>
+    <t>613.747:N77</t>
+  </si>
+  <si>
+    <t>奥付は第4集のもの。</t>
+  </si>
+  <si>
+    <t>第1~4集合冊</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/f9dbea50-3d74-5d6e-03f2-b5bf339b5a2b.json</t>
+  </si>
+  <si>
+    <t>f9dbea50-3d74-5d6e-03f2-b5bf339b5a2b</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/f9dbea50-3d74-5d6e-03f2-b5bf339b5a2b</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/fbb8c60962dbe0979e6a3a4b6e8cd7154da20205.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541550</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/f9dbea50-3d74-5d6e-03f2-b5bf339b5a2b/manifest</t>
+  </si>
+  <si>
+    <t>群芳圖譜 第1輯第1編</t>
+  </si>
+  <si>
+    <t>グンボウ ズフ</t>
+  </si>
+  <si>
+    <t>和田英作,佐藤醇吉著</t>
+  </si>
+  <si>
+    <t>1919-1920</t>
+  </si>
+  <si>
+    <t>613:87:1</t>
+  </si>
+  <si>
+    <t>第1輯第1編</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/a2af6812-7fd8-2cf2-759d-11fff8990e95.json</t>
+  </si>
+  <si>
+    <t>a2af6812-7fd8-2cf2-759d-11fff8990e95</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/a2af6812-7fd8-2cf2-759d-11fff8990e95</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/225c42e552ee6867753636a32207aed416754e7e.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541549</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/a2af6812-7fd8-2cf2-759d-11fff8990e95/manifest</t>
+  </si>
+  <si>
+    <t>群芳圖譜 第1輯第2編</t>
+  </si>
+  <si>
+    <t>613:87:2</t>
+  </si>
+  <si>
+    <t>第1輯第2編</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/2da73342-76a3-0edc-8b07-d866f06d5ea3.json</t>
+  </si>
+  <si>
+    <t>2da73342-76a3-0edc-8b07-d866f06d5ea3</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/2da73342-76a3-0edc-8b07-d866f06d5ea3</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ce19c12987a8ba1779c7aa1842fbc9f4829ba41e.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541548</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/2da73342-76a3-0edc-8b07-d866f06d5ea3/manifest</t>
+  </si>
+  <si>
+    <t>群芳圖譜 第1輯第3編</t>
+  </si>
+  <si>
+    <t>613:87:3</t>
+  </si>
+  <si>
+    <t>第1輯第3編</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/e443b3ea-830a-907d-42a9-cb4036f27a96.json</t>
+  </si>
+  <si>
+    <t>e443b3ea-830a-907d-42a9-cb4036f27a96</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/e443b3ea-830a-907d-42a9-cb4036f27a96</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c610a5db73c695d906f38c17f4778fd0bea3a396.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541547</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/e443b3ea-830a-907d-42a9-cb4036f27a96/manifest</t>
+  </si>
+  <si>
+    <t>群芳圖譜 第1輯第4編</t>
+  </si>
+  <si>
+    <t>613:87:4</t>
+  </si>
+  <si>
+    <t>第1輯第4編</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/8d83cc45-79ff-0188-659b-7ca5fd48849e.json</t>
+  </si>
+  <si>
+    <t>8d83cc45-79ff-0188-659b-7ca5fd48849e</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/8d83cc45-79ff-0188-659b-7ca5fd48849e</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/180f17e0300b2eed520169397e39154d16da753d.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541546</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/8d83cc45-79ff-0188-659b-7ca5fd48849e/manifest</t>
+  </si>
+  <si>
+    <t>群芳圖譜 第1輯第5編</t>
+  </si>
+  <si>
+    <t>613:87:5</t>
+  </si>
+  <si>
+    <t>第1輯第5編</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/30c60644-40b8-a0d3-9231-3b6320c7843e.json</t>
+  </si>
+  <si>
+    <t>30c60644-40b8-a0d3-9231-3b6320c7843e</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/30c60644-40b8-a0d3-9231-3b6320c7843e</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/aa0de2c2a687f0f508cf80195de75e77d028e9d2.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541545</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/30c60644-40b8-a0d3-9231-3b6320c7843e/manifest</t>
+  </si>
+  <si>
+    <t>群芳圖譜 第1輯第6編</t>
+  </si>
+  <si>
+    <t>613:87:6</t>
+  </si>
+  <si>
+    <t>第1輯第6編</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/05fc859e-3db1-5c8b-323f-e11d3e9010cc.json</t>
+  </si>
+  <si>
+    <t>05fc859e-3db1-5c8b-323f-e11d3e9010cc</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/05fc859e-3db1-5c8b-323f-e11d3e9010cc</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/107706cdc82d533d6cf87c45a4c8feb3eaf498a4.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541544</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/05fc859e-3db1-5c8b-323f-e11d3e9010cc/manifest</t>
+  </si>
+  <si>
+    <t>群芳圖譜 第1輯第7編</t>
+  </si>
+  <si>
+    <t>613:87:7</t>
+  </si>
+  <si>
+    <t>第1輯第7編</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/0717b584-7f27-70c4-70e9-0dfc7ed28f77.json</t>
+  </si>
+  <si>
+    <t>0717b584-7f27-70c4-70e9-0dfc7ed28f77</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/0717b584-7f27-70c4-70e9-0dfc7ed28f77</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/dd02ec25ce367d18733dae2b6b933857330f70ef.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541543</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/0717b584-7f27-70c4-70e9-0dfc7ed28f77/manifest</t>
+  </si>
+  <si>
+    <t>群芳圖譜 第1輯第8編</t>
+  </si>
+  <si>
+    <t>613:87:8</t>
+  </si>
+  <si>
+    <t>第1輯第8編</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/4e17a945-4320-171d-142e-bd3838ba1cfa.json</t>
+  </si>
+  <si>
+    <t>4e17a945-4320-171d-142e-bd3838ba1cfa</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/4e17a945-4320-171d-142e-bd3838ba1cfa</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/339a276633da9de6775957ee7a4a99657da66070.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541542</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/4e17a945-4320-171d-142e-bd3838ba1cfa/manifest</t>
+  </si>
+  <si>
+    <t>群芳圖譜 第1輯第9編</t>
+  </si>
+  <si>
+    <t>613:87:9</t>
+  </si>
+  <si>
+    <t>後半部分欠損</t>
+  </si>
+  <si>
+    <t>第1輯第9編</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/97a6ecb3-5cb2-08c3-0d4f-e057b8f2258b.json</t>
+  </si>
+  <si>
+    <t>97a6ecb3-5cb2-08c3-0d4f-e057b8f2258b</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/97a6ecb3-5cb2-08c3-0d4f-e057b8f2258b</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/4889193c1dad47143bcbc566029954c7f7f6dfd2.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541541</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/97a6ecb3-5cb2-08c3-0d4f-e057b8f2258b/manifest</t>
+  </si>
+  <si>
+    <t>群芳圖譜 第1輯第10編</t>
+  </si>
+  <si>
+    <t>613:87:10</t>
+  </si>
+  <si>
+    <t>第1輯第10編</t>
+  </si>
+  <si>
+    <t>http://tify.sub.uni-goettingen.de/demo.html?manifest=https://archdataset.dl.itc.u-tokyo.ac.jp/manifest/c9f1ab4e-6bf9-997c-95a7-572c5e6b2597.json</t>
+  </si>
+  <si>
+    <t>c9f1ab4e-6bf9-997c-95a7-572c5e6b2597</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/c9f1ab4e-6bf9-997c-95a7-572c5e6b2597</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/9e49280f7ff12d3d0e81a1af711164ee8e90be35.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541540</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/c9f1ab4e-6bf9-997c-95a7-572c5e6b2597/manifest</t>
   </si>
 </sst>
 </file>
@@ -863,7 +1697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1070,7 +1904,7 @@
         <v>63</v>
       </c>
       <c r="AG2" t="n">
-        <v>857</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -1703,6 +2537,1988 @@
         <v>145</v>
       </c>
     </row>
+    <row r="11" spans="1:33">
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" t="s"/>
+      <c r="D11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s"/>
+      <c r="K11" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" t="s"/>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s">
+        <v>175</v>
+      </c>
+      <c r="P11" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>127</v>
+      </c>
+      <c r="R11" t="s">
+        <v>177</v>
+      </c>
+      <c r="S11" t="s">
+        <v>79</v>
+      </c>
+      <c r="T11" t="s">
+        <v>178</v>
+      </c>
+      <c r="U11" t="s">
+        <v>179</v>
+      </c>
+      <c r="V11" t="s">
+        <v>180</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA11" t="s"/>
+      <c r="AB11" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC11" t="s"/>
+      <c r="AD11" t="s"/>
+      <c r="AE11" t="s"/>
+      <c r="AF11" t="s"/>
+      <c r="AG11" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" t="s"/>
+      <c r="D12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s"/>
+      <c r="K12" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" t="s"/>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s">
+        <v>186</v>
+      </c>
+      <c r="P12" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>127</v>
+      </c>
+      <c r="R12" t="s">
+        <v>188</v>
+      </c>
+      <c r="S12" t="s">
+        <v>79</v>
+      </c>
+      <c r="T12" t="s">
+        <v>189</v>
+      </c>
+      <c r="U12" t="s">
+        <v>190</v>
+      </c>
+      <c r="V12" t="s">
+        <v>180</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA12" t="s"/>
+      <c r="AB12" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC12" t="s"/>
+      <c r="AD12" t="s"/>
+      <c r="AE12" t="s"/>
+      <c r="AF12" t="s"/>
+      <c r="AG12" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" t="s"/>
+      <c r="D13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" t="s">
+        <v>196</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13" t="s"/>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s">
+        <v>197</v>
+      </c>
+      <c r="P13" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>127</v>
+      </c>
+      <c r="R13" t="s">
+        <v>199</v>
+      </c>
+      <c r="S13" t="s">
+        <v>79</v>
+      </c>
+      <c r="T13" t="s">
+        <v>200</v>
+      </c>
+      <c r="U13" t="s">
+        <v>201</v>
+      </c>
+      <c r="V13" t="s">
+        <v>180</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>202</v>
+      </c>
+      <c r="AA13" t="s"/>
+      <c r="AB13" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC13" t="s"/>
+      <c r="AD13" t="s"/>
+      <c r="AE13" t="s"/>
+      <c r="AF13" t="s"/>
+      <c r="AG13" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" t="s"/>
+      <c r="D14" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" t="s">
+        <v>173</v>
+      </c>
+      <c r="G14" t="s">
+        <v>208</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s"/>
+      <c r="K14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" t="s"/>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s">
+        <v>209</v>
+      </c>
+      <c r="P14" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>127</v>
+      </c>
+      <c r="R14" t="s">
+        <v>211</v>
+      </c>
+      <c r="S14" t="s">
+        <v>79</v>
+      </c>
+      <c r="T14" t="s">
+        <v>212</v>
+      </c>
+      <c r="U14" t="s">
+        <v>213</v>
+      </c>
+      <c r="V14" t="s">
+        <v>180</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA14" t="s"/>
+      <c r="AB14" t="s">
+        <v>215</v>
+      </c>
+      <c r="AC14" t="s"/>
+      <c r="AD14" t="s"/>
+      <c r="AE14" t="s"/>
+      <c r="AF14" t="s"/>
+      <c r="AG14" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" t="s"/>
+      <c r="D15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" t="s">
+        <v>219</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s"/>
+      <c r="K15" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15" t="s"/>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s">
+        <v>220</v>
+      </c>
+      <c r="P15" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>127</v>
+      </c>
+      <c r="R15" t="s">
+        <v>222</v>
+      </c>
+      <c r="S15" t="s">
+        <v>79</v>
+      </c>
+      <c r="T15" t="s">
+        <v>223</v>
+      </c>
+      <c r="U15" t="s">
+        <v>224</v>
+      </c>
+      <c r="V15" t="s">
+        <v>180</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA15" t="s"/>
+      <c r="AB15" t="s">
+        <v>226</v>
+      </c>
+      <c r="AC15" t="s"/>
+      <c r="AD15" t="s"/>
+      <c r="AE15" t="s"/>
+      <c r="AF15" t="s"/>
+      <c r="AG15" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" t="s"/>
+      <c r="D16" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" t="s">
+        <v>231</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s"/>
+      <c r="K16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" t="s"/>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s">
+        <v>232</v>
+      </c>
+      <c r="P16" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>127</v>
+      </c>
+      <c r="R16" t="s">
+        <v>234</v>
+      </c>
+      <c r="S16" t="s">
+        <v>79</v>
+      </c>
+      <c r="T16" t="s">
+        <v>235</v>
+      </c>
+      <c r="U16" t="s">
+        <v>236</v>
+      </c>
+      <c r="V16" t="s">
+        <v>180</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA16" t="s"/>
+      <c r="AB16" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC16" t="s"/>
+      <c r="AD16" t="s"/>
+      <c r="AE16" t="s"/>
+      <c r="AF16" t="s"/>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33">
+      <c r="A17" t="s">
+        <v>239</v>
+      </c>
+      <c r="B17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" t="s"/>
+      <c r="D17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E17" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" t="s">
+        <v>240</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s"/>
+      <c r="K17" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17" t="s"/>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s">
+        <v>241</v>
+      </c>
+      <c r="P17" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>127</v>
+      </c>
+      <c r="R17" t="s">
+        <v>243</v>
+      </c>
+      <c r="S17" t="s">
+        <v>79</v>
+      </c>
+      <c r="T17" t="s">
+        <v>244</v>
+      </c>
+      <c r="U17" t="s">
+        <v>245</v>
+      </c>
+      <c r="V17" t="s">
+        <v>180</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA17" t="s"/>
+      <c r="AB17" t="s">
+        <v>247</v>
+      </c>
+      <c r="AC17" t="s"/>
+      <c r="AD17" t="s"/>
+      <c r="AE17" t="s"/>
+      <c r="AF17" t="s"/>
+      <c r="AG17" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="A18" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" t="s"/>
+      <c r="D18" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" t="s">
+        <v>230</v>
+      </c>
+      <c r="F18" t="s">
+        <v>173</v>
+      </c>
+      <c r="G18" t="s">
+        <v>249</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s"/>
+      <c r="K18" t="s">
+        <v>72</v>
+      </c>
+      <c r="L18" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" t="s"/>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s">
+        <v>250</v>
+      </c>
+      <c r="P18" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>127</v>
+      </c>
+      <c r="R18" t="s">
+        <v>252</v>
+      </c>
+      <c r="S18" t="s">
+        <v>79</v>
+      </c>
+      <c r="T18" t="s">
+        <v>253</v>
+      </c>
+      <c r="U18" t="s">
+        <v>254</v>
+      </c>
+      <c r="V18" t="s">
+        <v>180</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AA18" t="s"/>
+      <c r="AB18" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC18" t="s"/>
+      <c r="AD18" t="s"/>
+      <c r="AE18" t="s"/>
+      <c r="AF18" t="s"/>
+      <c r="AG18" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33">
+      <c r="A19" t="s">
+        <v>257</v>
+      </c>
+      <c r="B19" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" t="s"/>
+      <c r="D19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" t="s">
+        <v>230</v>
+      </c>
+      <c r="F19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" t="s">
+        <v>258</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s"/>
+      <c r="K19" t="s">
+        <v>72</v>
+      </c>
+      <c r="L19" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" t="s"/>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s">
+        <v>259</v>
+      </c>
+      <c r="P19" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>127</v>
+      </c>
+      <c r="R19" t="s">
+        <v>261</v>
+      </c>
+      <c r="S19" t="s">
+        <v>79</v>
+      </c>
+      <c r="T19" t="s">
+        <v>262</v>
+      </c>
+      <c r="U19" t="s">
+        <v>263</v>
+      </c>
+      <c r="V19" t="s">
+        <v>180</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA19" t="s"/>
+      <c r="AB19" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC19" t="s"/>
+      <c r="AD19" t="s"/>
+      <c r="AE19" t="s"/>
+      <c r="AF19" t="s"/>
+      <c r="AG19" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33">
+      <c r="A20" t="s">
+        <v>266</v>
+      </c>
+      <c r="B20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" t="s"/>
+      <c r="D20" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" t="s">
+        <v>230</v>
+      </c>
+      <c r="F20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" t="s">
+        <v>267</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s"/>
+      <c r="K20" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" t="s">
+        <v>73</v>
+      </c>
+      <c r="M20" t="s"/>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s">
+        <v>268</v>
+      </c>
+      <c r="P20" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>127</v>
+      </c>
+      <c r="R20" t="s">
+        <v>270</v>
+      </c>
+      <c r="S20" t="s">
+        <v>79</v>
+      </c>
+      <c r="T20" t="s">
+        <v>271</v>
+      </c>
+      <c r="U20" t="s">
+        <v>272</v>
+      </c>
+      <c r="V20" t="s">
+        <v>180</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA20" t="s"/>
+      <c r="AB20" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC20" t="s"/>
+      <c r="AD20" t="s"/>
+      <c r="AE20" t="s"/>
+      <c r="AF20" t="s"/>
+      <c r="AG20" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33">
+      <c r="A21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B21" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" t="s"/>
+      <c r="D21" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" t="s">
+        <v>230</v>
+      </c>
+      <c r="F21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" t="s">
+        <v>276</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s"/>
+      <c r="K21" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" t="s"/>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s">
+        <v>277</v>
+      </c>
+      <c r="P21" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>127</v>
+      </c>
+      <c r="R21" t="s">
+        <v>279</v>
+      </c>
+      <c r="S21" t="s">
+        <v>79</v>
+      </c>
+      <c r="T21" t="s">
+        <v>280</v>
+      </c>
+      <c r="U21" t="s">
+        <v>281</v>
+      </c>
+      <c r="V21" t="s">
+        <v>180</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA21" t="s"/>
+      <c r="AB21" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC21" t="s"/>
+      <c r="AD21" t="s"/>
+      <c r="AE21" t="s"/>
+      <c r="AF21" t="s"/>
+      <c r="AG21" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33">
+      <c r="A22" t="s">
+        <v>284</v>
+      </c>
+      <c r="B22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" t="s"/>
+      <c r="D22" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" t="s">
+        <v>230</v>
+      </c>
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>285</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s"/>
+      <c r="K22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" t="s">
+        <v>73</v>
+      </c>
+      <c r="M22" t="s"/>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s">
+        <v>286</v>
+      </c>
+      <c r="P22" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>127</v>
+      </c>
+      <c r="R22" t="s">
+        <v>288</v>
+      </c>
+      <c r="S22" t="s">
+        <v>79</v>
+      </c>
+      <c r="T22" t="s">
+        <v>289</v>
+      </c>
+      <c r="U22" t="s">
+        <v>290</v>
+      </c>
+      <c r="V22" t="s">
+        <v>180</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA22" t="s"/>
+      <c r="AB22" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC22" t="s"/>
+      <c r="AD22" t="s"/>
+      <c r="AE22" t="s"/>
+      <c r="AF22" t="s"/>
+      <c r="AG22" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33">
+      <c r="A23" t="s">
+        <v>293</v>
+      </c>
+      <c r="B23" t="s">
+        <v>294</v>
+      </c>
+      <c r="C23" t="s"/>
+      <c r="D23" t="s">
+        <v>295</v>
+      </c>
+      <c r="E23" t="s">
+        <v>296</v>
+      </c>
+      <c r="F23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G23" t="s">
+        <v>297</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s"/>
+      <c r="K23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L23" t="s">
+        <v>73</v>
+      </c>
+      <c r="M23" t="s">
+        <v>298</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s">
+        <v>299</v>
+      </c>
+      <c r="P23" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>127</v>
+      </c>
+      <c r="R23" t="s">
+        <v>301</v>
+      </c>
+      <c r="S23" t="s">
+        <v>79</v>
+      </c>
+      <c r="T23" t="s">
+        <v>302</v>
+      </c>
+      <c r="U23" t="s">
+        <v>303</v>
+      </c>
+      <c r="V23" t="s">
+        <v>180</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>304</v>
+      </c>
+      <c r="AA23" t="s"/>
+      <c r="AB23" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC23" t="s"/>
+      <c r="AD23" t="s"/>
+      <c r="AE23" t="s"/>
+      <c r="AF23" t="s"/>
+      <c r="AG23" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33">
+      <c r="A24" t="s">
+        <v>306</v>
+      </c>
+      <c r="B24" t="s">
+        <v>307</v>
+      </c>
+      <c r="C24" t="s"/>
+      <c r="D24" t="s">
+        <v>308</v>
+      </c>
+      <c r="E24" t="s">
+        <v>309</v>
+      </c>
+      <c r="F24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" t="s">
+        <v>310</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s"/>
+      <c r="K24" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" t="s">
+        <v>73</v>
+      </c>
+      <c r="M24" t="s">
+        <v>311</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s">
+        <v>312</v>
+      </c>
+      <c r="P24" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>127</v>
+      </c>
+      <c r="R24" t="s">
+        <v>314</v>
+      </c>
+      <c r="S24" t="s">
+        <v>79</v>
+      </c>
+      <c r="T24" t="s">
+        <v>315</v>
+      </c>
+      <c r="U24" t="s">
+        <v>316</v>
+      </c>
+      <c r="V24" t="s">
+        <v>180</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>317</v>
+      </c>
+      <c r="AA24" t="s"/>
+      <c r="AB24" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC24" t="s"/>
+      <c r="AD24" t="s"/>
+      <c r="AE24" t="s"/>
+      <c r="AF24" t="s"/>
+      <c r="AG24" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
+      <c r="A25" t="s">
+        <v>319</v>
+      </c>
+      <c r="B25" t="s">
+        <v>307</v>
+      </c>
+      <c r="C25" t="s"/>
+      <c r="D25" t="s">
+        <v>308</v>
+      </c>
+      <c r="E25" t="s">
+        <v>309</v>
+      </c>
+      <c r="F25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" t="s">
+        <v>320</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s"/>
+      <c r="K25" t="s">
+        <v>72</v>
+      </c>
+      <c r="L25" t="s">
+        <v>73</v>
+      </c>
+      <c r="M25" t="s">
+        <v>321</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s">
+        <v>322</v>
+      </c>
+      <c r="P25" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>127</v>
+      </c>
+      <c r="R25" t="s">
+        <v>324</v>
+      </c>
+      <c r="S25" t="s">
+        <v>79</v>
+      </c>
+      <c r="T25" t="s">
+        <v>325</v>
+      </c>
+      <c r="U25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V25" t="s">
+        <v>180</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA25" t="s"/>
+      <c r="AB25" t="s">
+        <v>328</v>
+      </c>
+      <c r="AC25" t="s"/>
+      <c r="AD25" t="s"/>
+      <c r="AE25" t="s"/>
+      <c r="AF25" t="s"/>
+      <c r="AG25" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
+      <c r="A26" t="s">
+        <v>329</v>
+      </c>
+      <c r="B26" t="s">
+        <v>330</v>
+      </c>
+      <c r="C26" t="s"/>
+      <c r="D26" t="s">
+        <v>331</v>
+      </c>
+      <c r="E26" t="s">
+        <v>332</v>
+      </c>
+      <c r="F26" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" t="s">
+        <v>333</v>
+      </c>
+      <c r="H26" t="s">
+        <v>334</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s"/>
+      <c r="K26" t="s">
+        <v>72</v>
+      </c>
+      <c r="L26" t="s">
+        <v>73</v>
+      </c>
+      <c r="M26" t="s">
+        <v>335</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s">
+        <v>336</v>
+      </c>
+      <c r="P26" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>127</v>
+      </c>
+      <c r="R26" t="s">
+        <v>338</v>
+      </c>
+      <c r="S26" t="s">
+        <v>79</v>
+      </c>
+      <c r="T26" t="s">
+        <v>339</v>
+      </c>
+      <c r="U26" t="s">
+        <v>340</v>
+      </c>
+      <c r="V26" t="s">
+        <v>180</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA26" t="s"/>
+      <c r="AB26" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC26" t="s"/>
+      <c r="AD26" t="s"/>
+      <c r="AE26" t="s"/>
+      <c r="AF26" t="s"/>
+      <c r="AG26" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
+      <c r="A27" t="s">
+        <v>343</v>
+      </c>
+      <c r="B27" t="s">
+        <v>344</v>
+      </c>
+      <c r="C27" t="s"/>
+      <c r="D27" t="s">
+        <v>345</v>
+      </c>
+      <c r="E27" t="s">
+        <v>346</v>
+      </c>
+      <c r="F27" t="s">
+        <v>173</v>
+      </c>
+      <c r="G27" t="s">
+        <v>347</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s"/>
+      <c r="K27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L27" t="s">
+        <v>73</v>
+      </c>
+      <c r="M27" t="s">
+        <v>348</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s">
+        <v>349</v>
+      </c>
+      <c r="P27" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>127</v>
+      </c>
+      <c r="R27" t="s">
+        <v>351</v>
+      </c>
+      <c r="S27" t="s">
+        <v>79</v>
+      </c>
+      <c r="T27" t="s">
+        <v>352</v>
+      </c>
+      <c r="U27" t="s">
+        <v>353</v>
+      </c>
+      <c r="V27" t="s">
+        <v>180</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA27" t="s"/>
+      <c r="AB27" t="s">
+        <v>355</v>
+      </c>
+      <c r="AC27" t="s"/>
+      <c r="AD27" t="s"/>
+      <c r="AE27" t="s"/>
+      <c r="AF27" t="s"/>
+      <c r="AG27" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="A28" t="s">
+        <v>356</v>
+      </c>
+      <c r="B28" t="s">
+        <v>344</v>
+      </c>
+      <c r="C28" t="s"/>
+      <c r="D28" t="s">
+        <v>345</v>
+      </c>
+      <c r="E28" t="s">
+        <v>346</v>
+      </c>
+      <c r="F28" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" t="s">
+        <v>357</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s"/>
+      <c r="K28" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" t="s">
+        <v>73</v>
+      </c>
+      <c r="M28" t="s">
+        <v>358</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s">
+        <v>359</v>
+      </c>
+      <c r="P28" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>127</v>
+      </c>
+      <c r="R28" t="s">
+        <v>361</v>
+      </c>
+      <c r="S28" t="s">
+        <v>79</v>
+      </c>
+      <c r="T28" t="s">
+        <v>362</v>
+      </c>
+      <c r="U28" t="s">
+        <v>363</v>
+      </c>
+      <c r="V28" t="s">
+        <v>180</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA28" t="s"/>
+      <c r="AB28" t="s">
+        <v>365</v>
+      </c>
+      <c r="AC28" t="s"/>
+      <c r="AD28" t="s"/>
+      <c r="AE28" t="s"/>
+      <c r="AF28" t="s"/>
+      <c r="AG28" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33">
+      <c r="A29" t="s">
+        <v>366</v>
+      </c>
+      <c r="B29" t="s">
+        <v>344</v>
+      </c>
+      <c r="C29" t="s"/>
+      <c r="D29" t="s">
+        <v>345</v>
+      </c>
+      <c r="E29" t="s">
+        <v>346</v>
+      </c>
+      <c r="F29" t="s">
+        <v>173</v>
+      </c>
+      <c r="G29" t="s">
+        <v>367</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s"/>
+      <c r="K29" t="s">
+        <v>72</v>
+      </c>
+      <c r="L29" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29" t="s">
+        <v>368</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s">
+        <v>369</v>
+      </c>
+      <c r="P29" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>127</v>
+      </c>
+      <c r="R29" t="s">
+        <v>371</v>
+      </c>
+      <c r="S29" t="s">
+        <v>79</v>
+      </c>
+      <c r="T29" t="s">
+        <v>372</v>
+      </c>
+      <c r="U29" t="s">
+        <v>373</v>
+      </c>
+      <c r="V29" t="s">
+        <v>180</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA29" t="s"/>
+      <c r="AB29" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC29" t="s"/>
+      <c r="AD29" t="s"/>
+      <c r="AE29" t="s"/>
+      <c r="AF29" t="s"/>
+      <c r="AG29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33">
+      <c r="A30" t="s">
+        <v>376</v>
+      </c>
+      <c r="B30" t="s">
+        <v>344</v>
+      </c>
+      <c r="C30" t="s"/>
+      <c r="D30" t="s">
+        <v>345</v>
+      </c>
+      <c r="E30" t="s">
+        <v>346</v>
+      </c>
+      <c r="F30" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" t="s">
+        <v>377</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s"/>
+      <c r="K30" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30" t="s">
+        <v>378</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s">
+        <v>379</v>
+      </c>
+      <c r="P30" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>127</v>
+      </c>
+      <c r="R30" t="s">
+        <v>381</v>
+      </c>
+      <c r="S30" t="s">
+        <v>79</v>
+      </c>
+      <c r="T30" t="s">
+        <v>382</v>
+      </c>
+      <c r="U30" t="s">
+        <v>383</v>
+      </c>
+      <c r="V30" t="s">
+        <v>180</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>384</v>
+      </c>
+      <c r="AA30" t="s"/>
+      <c r="AB30" t="s">
+        <v>385</v>
+      </c>
+      <c r="AC30" t="s"/>
+      <c r="AD30" t="s"/>
+      <c r="AE30" t="s"/>
+      <c r="AF30" t="s"/>
+      <c r="AG30" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33">
+      <c r="A31" t="s">
+        <v>386</v>
+      </c>
+      <c r="B31" t="s">
+        <v>344</v>
+      </c>
+      <c r="C31" t="s"/>
+      <c r="D31" t="s">
+        <v>345</v>
+      </c>
+      <c r="E31" t="s">
+        <v>346</v>
+      </c>
+      <c r="F31" t="s">
+        <v>173</v>
+      </c>
+      <c r="G31" t="s">
+        <v>387</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s"/>
+      <c r="K31" t="s">
+        <v>72</v>
+      </c>
+      <c r="L31" t="s">
+        <v>73</v>
+      </c>
+      <c r="M31" t="s">
+        <v>388</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s">
+        <v>389</v>
+      </c>
+      <c r="P31" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>127</v>
+      </c>
+      <c r="R31" t="s">
+        <v>391</v>
+      </c>
+      <c r="S31" t="s">
+        <v>79</v>
+      </c>
+      <c r="T31" t="s">
+        <v>392</v>
+      </c>
+      <c r="U31" t="s">
+        <v>393</v>
+      </c>
+      <c r="V31" t="s">
+        <v>180</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA31" t="s"/>
+      <c r="AB31" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC31" t="s"/>
+      <c r="AD31" t="s"/>
+      <c r="AE31" t="s"/>
+      <c r="AF31" t="s"/>
+      <c r="AG31" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33">
+      <c r="A32" t="s">
+        <v>396</v>
+      </c>
+      <c r="B32" t="s">
+        <v>344</v>
+      </c>
+      <c r="C32" t="s"/>
+      <c r="D32" t="s">
+        <v>345</v>
+      </c>
+      <c r="E32" t="s">
+        <v>346</v>
+      </c>
+      <c r="F32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" t="s">
+        <v>397</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s"/>
+      <c r="K32" t="s">
+        <v>72</v>
+      </c>
+      <c r="L32" t="s">
+        <v>73</v>
+      </c>
+      <c r="M32" t="s">
+        <v>398</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s">
+        <v>399</v>
+      </c>
+      <c r="P32" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>127</v>
+      </c>
+      <c r="R32" t="s">
+        <v>401</v>
+      </c>
+      <c r="S32" t="s">
+        <v>79</v>
+      </c>
+      <c r="T32" t="s">
+        <v>402</v>
+      </c>
+      <c r="U32" t="s">
+        <v>403</v>
+      </c>
+      <c r="V32" t="s">
+        <v>180</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA32" t="s"/>
+      <c r="AB32" t="s">
+        <v>405</v>
+      </c>
+      <c r="AC32" t="s"/>
+      <c r="AD32" t="s"/>
+      <c r="AE32" t="s"/>
+      <c r="AF32" t="s"/>
+      <c r="AG32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:33">
+      <c r="A33" t="s">
+        <v>406</v>
+      </c>
+      <c r="B33" t="s">
+        <v>344</v>
+      </c>
+      <c r="C33" t="s"/>
+      <c r="D33" t="s">
+        <v>345</v>
+      </c>
+      <c r="E33" t="s">
+        <v>346</v>
+      </c>
+      <c r="F33" t="s">
+        <v>173</v>
+      </c>
+      <c r="G33" t="s">
+        <v>407</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s"/>
+      <c r="K33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L33" t="s">
+        <v>73</v>
+      </c>
+      <c r="M33" t="s">
+        <v>408</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s">
+        <v>409</v>
+      </c>
+      <c r="P33" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>127</v>
+      </c>
+      <c r="R33" t="s">
+        <v>411</v>
+      </c>
+      <c r="S33" t="s">
+        <v>79</v>
+      </c>
+      <c r="T33" t="s">
+        <v>412</v>
+      </c>
+      <c r="U33" t="s">
+        <v>413</v>
+      </c>
+      <c r="V33" t="s">
+        <v>180</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>414</v>
+      </c>
+      <c r="AA33" t="s"/>
+      <c r="AB33" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC33" t="s"/>
+      <c r="AD33" t="s"/>
+      <c r="AE33" t="s"/>
+      <c r="AF33" t="s"/>
+      <c r="AG33" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33">
+      <c r="A34" t="s">
+        <v>416</v>
+      </c>
+      <c r="B34" t="s">
+        <v>344</v>
+      </c>
+      <c r="C34" t="s"/>
+      <c r="D34" t="s">
+        <v>345</v>
+      </c>
+      <c r="E34" t="s">
+        <v>346</v>
+      </c>
+      <c r="F34" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" t="s">
+        <v>417</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s"/>
+      <c r="K34" t="s">
+        <v>72</v>
+      </c>
+      <c r="L34" t="s">
+        <v>73</v>
+      </c>
+      <c r="M34" t="s">
+        <v>418</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s">
+        <v>419</v>
+      </c>
+      <c r="P34" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>127</v>
+      </c>
+      <c r="R34" t="s">
+        <v>421</v>
+      </c>
+      <c r="S34" t="s">
+        <v>79</v>
+      </c>
+      <c r="T34" t="s">
+        <v>422</v>
+      </c>
+      <c r="U34" t="s">
+        <v>423</v>
+      </c>
+      <c r="V34" t="s">
+        <v>180</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>424</v>
+      </c>
+      <c r="AA34" t="s"/>
+      <c r="AB34" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC34" t="s"/>
+      <c r="AD34" t="s"/>
+      <c r="AE34" t="s"/>
+      <c r="AF34" t="s"/>
+      <c r="AG34" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33">
+      <c r="A35" t="s">
+        <v>426</v>
+      </c>
+      <c r="B35" t="s">
+        <v>344</v>
+      </c>
+      <c r="C35" t="s"/>
+      <c r="D35" t="s">
+        <v>345</v>
+      </c>
+      <c r="E35" t="s">
+        <v>346</v>
+      </c>
+      <c r="F35" t="s">
+        <v>173</v>
+      </c>
+      <c r="G35" t="s">
+        <v>427</v>
+      </c>
+      <c r="H35" t="s">
+        <v>428</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s"/>
+      <c r="K35" t="s">
+        <v>72</v>
+      </c>
+      <c r="L35" t="s">
+        <v>73</v>
+      </c>
+      <c r="M35" t="s">
+        <v>429</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s">
+        <v>430</v>
+      </c>
+      <c r="P35" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>127</v>
+      </c>
+      <c r="R35" t="s">
+        <v>432</v>
+      </c>
+      <c r="S35" t="s">
+        <v>79</v>
+      </c>
+      <c r="T35" t="s">
+        <v>433</v>
+      </c>
+      <c r="U35" t="s">
+        <v>434</v>
+      </c>
+      <c r="V35" t="s">
+        <v>180</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>435</v>
+      </c>
+      <c r="AA35" t="s"/>
+      <c r="AB35" t="s">
+        <v>436</v>
+      </c>
+      <c r="AC35" t="s"/>
+      <c r="AD35" t="s"/>
+      <c r="AE35" t="s"/>
+      <c r="AF35" t="s"/>
+      <c r="AG35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33">
+      <c r="A36" t="s">
+        <v>437</v>
+      </c>
+      <c r="B36" t="s">
+        <v>344</v>
+      </c>
+      <c r="C36" t="s"/>
+      <c r="D36" t="s">
+        <v>345</v>
+      </c>
+      <c r="E36" t="s">
+        <v>346</v>
+      </c>
+      <c r="F36" t="s">
+        <v>173</v>
+      </c>
+      <c r="G36" t="s">
+        <v>438</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s"/>
+      <c r="K36" t="s">
+        <v>72</v>
+      </c>
+      <c r="L36" t="s">
+        <v>73</v>
+      </c>
+      <c r="M36" t="s">
+        <v>439</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s">
+        <v>440</v>
+      </c>
+      <c r="P36" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>127</v>
+      </c>
+      <c r="R36" t="s">
+        <v>442</v>
+      </c>
+      <c r="S36" t="s">
+        <v>79</v>
+      </c>
+      <c r="T36" t="s">
+        <v>443</v>
+      </c>
+      <c r="U36" t="s">
+        <v>444</v>
+      </c>
+      <c r="V36" t="s">
+        <v>180</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>445</v>
+      </c>
+      <c r="AA36" t="s"/>
+      <c r="AB36" t="s">
+        <v>446</v>
+      </c>
+      <c r="AC36" t="s"/>
+      <c r="AD36" t="s"/>
+      <c r="AE36" t="s"/>
+      <c r="AF36" t="s"/>
+      <c r="AG36" t="n">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/docs/collections/agriculture/metadata/data.xlsx
+++ b/docs/collections/agriculture/metadata/data.xlsx
@@ -261,7 +261,7 @@
     <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a4b196eb69d747affef9b21433189b35b9de8983.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a854fb44d17ab0f9f5bd95a2637c311ae0149a3a.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/275040</t>
@@ -320,7 +320,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/6d032fb5-0a2f-6e04-9e3c-6bb5f604714f</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3e2a963707c22839274e81d602669bcf2271ddf1.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ce5758680ca575da5f3a2c7c1a4efb30ec0575e9.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/275041</t>
@@ -371,7 +371,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/187cc82d-11e6-9912-9dd4-b4cca9b10970</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3ddcfb47a3e077e5a6e21f41187a4e81b714a62d.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/1ba32e3f0ffc84f504e4cc1d53c7cfe7bc88d7db.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/275042</t>
@@ -557,7 +557,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/b6e42779-162f-7bae-708c-bef438966890</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/077fa28b3310f6342fa6a018739870771bf996f6.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/14a8e8afeddd0ab3d4a4fd6cac5685bbab48346a.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/540593</t>
@@ -590,7 +590,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/7a3e0c92-234b-1295-947b-d697d0d6955f</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/34bf47811bcd86f03eca5a3c422d99f3c3b46377.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/97c0529a040265b8bf2e67b949be578ed7e2d285.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/540592</t>
@@ -623,7 +623,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/df8094b2-597f-5dcf-6c06-28af31a74c49</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e1c508b02e5ebfc8871fecd627a04c39f3c817fa.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/90f647a0bb13d794aef2957aa6c46c235205639d.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/540591</t>
@@ -659,7 +659,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/627f6b5d-4e4c-81e1-7954-bd451f567a45</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b61af98d51c3b998b528184e88248ceb5b3f0c28.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3dc15e9dbabbc0158d9913d72e3e11b9ecf4f6f6.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/540590</t>
@@ -692,7 +692,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/b4814f58-5ae1-481d-0cfa-6938aa3a7620</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c39bbe5819e6f19ab91b45b865c90b663538bea9.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/4fb75645c087af75f3055db0bb1e31fcfef680d6.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/540589</t>
@@ -728,7 +728,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/87c1c4a4-9cce-5b5f-a5a4-ad58e2240372</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/5fbc12009cb1eac40147b36930c8a2db0cfc3d58.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/1cbe04ccda9c3a0604f3331dc0aea9527c04b140.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/540588</t>
@@ -755,7 +755,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/bb4b00b5-8a54-3698-656b-2b5baaa40938</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/e02dd86ad44e9eb7356e43310a143b7f3e3b41b1.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/5abde5eb843ebc906082579acb7b6b91347c34ad.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/540587</t>
@@ -782,7 +782,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/42dfe305-0e6e-4d22-298a-d3895726a29a</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3ce488a3eb4254a3b6b8496ed85db77b9863ce02.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/3364e66d4f25b6291d583e1b29042f5f25fc98e1.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/540586</t>
@@ -809,7 +809,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/6041ed83-59e7-7bc0-196d-c7ed8d01673d</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c8830737091bd2f671f48d38dea9c1ba11a6c1aa.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/0fd408ca8f01b4b48b70c80355fcf0e8b4f63d97.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/540585</t>
@@ -836,7 +836,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/5bfde8bf-0b54-7848-97d6-1ee30cf9a645</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/bcaf9483c21cf2c344eb05db19c84318fdd494b7.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/bf05396c6209233d94c7883e25d8a4cf3624d93e.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/540584</t>
@@ -863,7 +863,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/7844f0c7-2434-7b74-15df-c74b0e3c8e38</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d95043c466b60e5a802fa195364e2a50d666b148.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/64363d5cbfe12a51092e585f5f6f940ad29ec7e6.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/540583</t>
@@ -890,7 +890,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/29d63e58-754f-7565-a41a-29cc2d5e4e3e</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/d1b7a04b7ee1601afbce74e2d5d6e443158cfa7d.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/28276688ee682e8065bd9bec5c8e77ad77cc8f53.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/540582</t>
@@ -929,7 +929,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/c2466a42-0add-7f2b-7d11-58aaebea953f</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/8c7d52ad1ff244a67cbdd65371cc066da0916d88.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/101b027d6bc01f45b781ec4b1b5ade9e683fc0e2.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541553</t>
@@ -968,7 +968,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/2c310bb0-6cb1-4f7b-2b7d-7d6255cf680e</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a99c241f170b53031c6868ffd035e2e7c83cd97c.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/83a4e1b5b89b77ef327aaabfe7ae54efcc673b83.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541552</t>
@@ -998,7 +998,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/70f02bc2-6f66-84ec-3578-058a8d03668c</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/cb8fd23accfa1e140cf1d12b9b9c6811ff39adb1.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/f647534e44867cf617598f2d51e26d05643d0948.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541551</t>
@@ -1040,7 +1040,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/f9dbea50-3d74-5d6e-03f2-b5bf339b5a2b</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/fbb8c60962dbe0979e6a3a4b6e8cd7154da20205.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/674d9cadf351cbd2facc9305e02d0769cbb9aa97.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541550</t>
@@ -1079,7 +1079,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/a2af6812-7fd8-2cf2-759d-11fff8990e95</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/225c42e552ee6867753636a32207aed416754e7e.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/79eddc772afeb6a83b0f3c57230c89b50848b7c2.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541549</t>
@@ -1109,7 +1109,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/2da73342-76a3-0edc-8b07-d866f06d5ea3</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/ce19c12987a8ba1779c7aa1842fbc9f4829ba41e.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/a25f6e6a6f3dc7075cf046171131e1dd30da1906.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541548</t>
@@ -1139,7 +1139,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/e443b3ea-830a-907d-42a9-cb4036f27a96</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/c610a5db73c695d906f38c17f4778fd0bea3a396.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/6f34c6d2435321d152f7259e81741f4a89f6546b.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541547</t>
@@ -1169,7 +1169,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/8d83cc45-79ff-0188-659b-7ca5fd48849e</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/180f17e0300b2eed520169397e39154d16da753d.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/408216c089708be5af32f74482148d3a4efdd097.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541546</t>
@@ -1199,7 +1199,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/30c60644-40b8-a0d3-9231-3b6320c7843e</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/aa0de2c2a687f0f508cf80195de75e77d028e9d2.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/03a77a3b6451aa20e1423800ecae92ce21c42553.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541545</t>
@@ -1229,7 +1229,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/05fc859e-3db1-5c8b-323f-e11d3e9010cc</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/107706cdc82d533d6cf87c45a4c8feb3eaf498a4.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/b9e94c996c3c17fd669ef4fa8dffb81e33e9ac1b.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541544</t>
@@ -1259,7 +1259,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/0717b584-7f27-70c4-70e9-0dfc7ed28f77</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/dd02ec25ce367d18733dae2b6b933857330f70ef.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/6baf5a7867abd52890ddf2c0e298dde3871036fa.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541543</t>
@@ -1289,7 +1289,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/4e17a945-4320-171d-142e-bd3838ba1cfa</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/339a276633da9de6775957ee7a4a99657da66070.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/1534e0eaa9a76cbddc00ac2cf517eacce5f4bc43.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541542</t>
@@ -1322,7 +1322,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/97a6ecb3-5cb2-08c3-0d4f-e057b8f2258b</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/4889193c1dad47143bcbc566029954c7f7f6dfd2.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/4338a576fa00a1b57f1dbf414ffeaed14fad4498.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541541</t>
@@ -1352,7 +1352,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/agriculture/document/c9f1ab4e-6bf9-997c-95a7-572c5e6b2597</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/9e49280f7ff12d3d0e81a1af711164ee8e90be35.jpg</t>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/2c13ea887a4ea6f06c7e832e01a70527eeeb6617.jpg</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/541540</t>
